--- a/team_specific_matrix/Eastern Ky._B.xlsx
+++ b/team_specific_matrix/Eastern Ky._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1842105263157895</v>
+        <v>0.1985559566787004</v>
       </c>
       <c r="C2">
-        <v>0.6052631578947368</v>
+        <v>0.5740072202166066</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008771929824561403</v>
+        <v>0.007220216606498195</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1447368421052632</v>
+        <v>0.1552346570397112</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05701754385964912</v>
+        <v>0.06498194945848375</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007246376811594203</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C3">
-        <v>0.007246376811594203</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02173913043478261</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7391304347826086</v>
+        <v>0.710691823899371</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2246376811594203</v>
+        <v>0.2389937106918239</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2666666666666667</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04705882352941176</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01764705882352941</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07647058823529412</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2529411764705882</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01176470588235294</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1588235294117647</v>
+        <v>0.1712962962962963</v>
       </c>
       <c r="R6">
-        <v>0.1</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="S6">
-        <v>0.3352941176470588</v>
+        <v>0.3240740740740741</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0718954248366013</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0130718954248366</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E7">
-        <v>0.006535947712418301</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="F7">
-        <v>0.0718954248366013</v>
+        <v>0.0625</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1830065359477124</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0196078431372549</v>
+        <v>0.015625</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1699346405228758</v>
+        <v>0.15625</v>
       </c>
       <c r="R7">
-        <v>0.1176470588235294</v>
+        <v>0.109375</v>
       </c>
       <c r="S7">
-        <v>0.3464052287581699</v>
+        <v>0.3802083333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1005025125628141</v>
+        <v>0.08646616541353383</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01005025125628141</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08542713567839195</v>
+        <v>0.07330827067669173</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1407035175879397</v>
+        <v>0.1221804511278195</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02010050251256281</v>
+        <v>0.02067669172932331</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1457286432160804</v>
+        <v>0.1616541353383459</v>
       </c>
       <c r="R8">
-        <v>0.09296482412060302</v>
+        <v>0.09398496240601503</v>
       </c>
       <c r="S8">
-        <v>0.4045226130653266</v>
+        <v>0.4342105263157895</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1104294478527607</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01840490797546012</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06134969325153374</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1104294478527607</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0245398773006135</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1595092024539877</v>
+        <v>0.1737089201877934</v>
       </c>
       <c r="R9">
-        <v>0.09202453987730061</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="S9">
-        <v>0.4233128834355828</v>
+        <v>0.431924882629108</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.104830421377184</v>
+        <v>0.09738717339667459</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01952723535457349</v>
+        <v>0.02058590657165479</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05549845837615622</v>
+        <v>0.05700712589073634</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1192189105858171</v>
+        <v>0.1258907363420428</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01336073997944501</v>
+        <v>0.01108471892319873</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2127440904419322</v>
+        <v>0.2193190815518606</v>
       </c>
       <c r="R10">
-        <v>0.09660842754367935</v>
+        <v>0.09026128266033254</v>
       </c>
       <c r="S10">
-        <v>0.3782117163412128</v>
+        <v>0.3784639746634996</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1394422310756972</v>
+        <v>0.1569230769230769</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1035856573705179</v>
+        <v>0.08923076923076922</v>
       </c>
       <c r="K11">
-        <v>0.2151394422310757</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L11">
-        <v>0.5099601593625498</v>
+        <v>0.4830769230769231</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03187250996015936</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7313432835820896</v>
+        <v>0.703030303030303</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1343283582089552</v>
+        <v>0.1575757575757576</v>
       </c>
       <c r="K12">
-        <v>0.02985074626865672</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="L12">
-        <v>0.05970149253731343</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04477611940298507</v>
+        <v>0.05454545454545454</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2424242424242424</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09090909090909091</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01948051948051948</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1298701298701299</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="I15">
-        <v>0.03896103896103896</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="J15">
-        <v>0.4090909090909091</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
-        <v>0.05844155844155844</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01298701298701299</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06493506493506493</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2662337662337662</v>
+        <v>0.2615384615384616</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01342281879194631</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2214765100671141</v>
+        <v>0.2259887005649718</v>
       </c>
       <c r="I16">
-        <v>0.1006711409395973</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="J16">
-        <v>0.4161073825503356</v>
+        <v>0.4180790960451977</v>
       </c>
       <c r="K16">
-        <v>0.08724832214765101</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006711409395973154</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02684563758389262</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1275167785234899</v>
+        <v>0.1186440677966102</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01449275362318841</v>
+        <v>0.01939655172413793</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.191304347826087</v>
+        <v>0.2004310344827586</v>
       </c>
       <c r="I17">
-        <v>0.0782608695652174</v>
+        <v>0.08836206896551724</v>
       </c>
       <c r="J17">
-        <v>0.3971014492753623</v>
+        <v>0.3685344827586207</v>
       </c>
       <c r="K17">
-        <v>0.1014492753623188</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01739130434782609</v>
+        <v>0.01939655172413793</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1333333333333333</v>
+        <v>0.1422413793103448</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005555555555555556</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2166666666666667</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="I18">
-        <v>0.1055555555555556</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="J18">
-        <v>0.3777777777777778</v>
+        <v>0.3828828828828829</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.1036036036036036</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005555555555555556</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="N18">
-        <v>0.005555555555555556</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="O18">
-        <v>0.04444444444444445</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1277777777777778</v>
+        <v>0.1441441441441441</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01359223300970874</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2368932038834951</v>
+        <v>0.2390350877192982</v>
       </c>
       <c r="I19">
-        <v>0.0941747572815534</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="J19">
-        <v>0.3271844660194175</v>
+        <v>0.3340643274853801</v>
       </c>
       <c r="K19">
-        <v>0.1106796116504854</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02330097087378641</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="N19">
-        <v>0.001941747572815534</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="O19">
-        <v>0.05631067961165048</v>
+        <v>0.05628654970760234</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1359223300970874</v>
+        <v>0.1337719298245614</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Eastern Ky._B.xlsx
+++ b/team_specific_matrix/Eastern Ky._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1985559566787004</v>
+        <v>0.1929260450160772</v>
       </c>
       <c r="C2">
-        <v>0.5740072202166066</v>
+        <v>0.5819935691318328</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007220216606498195</v>
+        <v>0.009646302250803859</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1552346570397112</v>
+        <v>0.1543408360128617</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06498194945848375</v>
+        <v>0.06109324758842444</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01257861635220126</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C3">
-        <v>0.006289308176100629</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03144654088050314</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.710691823899371</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2389937106918239</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2307692307692308</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04629629629629629</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01388888888888889</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07870370370370371</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2685185185185185</v>
+        <v>0.2618025751072962</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009259259259259259</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1712962962962963</v>
+        <v>0.167381974248927</v>
       </c>
       <c r="R6">
-        <v>0.08796296296296297</v>
+        <v>0.09442060085836911</v>
       </c>
       <c r="S6">
-        <v>0.3240740740740741</v>
+        <v>0.3261802575107296</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07291666666666667</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02083333333333333</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="E7">
-        <v>0.005208333333333333</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="F7">
-        <v>0.0625</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1770833333333333</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.015625</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.15625</v>
+        <v>0.1596244131455399</v>
       </c>
       <c r="R7">
-        <v>0.109375</v>
+        <v>0.1032863849765258</v>
       </c>
       <c r="S7">
-        <v>0.3802083333333333</v>
+        <v>0.3896713615023474</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08646616541353383</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007518796992481203</v>
+        <v>0.008375209380234505</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07330827067669173</v>
+        <v>0.06867671691792294</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1221804511278195</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02067669172932331</v>
+        <v>0.02177554438860971</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1616541353383459</v>
+        <v>0.1742043551088777</v>
       </c>
       <c r="R8">
-        <v>0.09398496240601503</v>
+        <v>0.09212730318257957</v>
       </c>
       <c r="S8">
-        <v>0.4342105263157895</v>
+        <v>0.4288107202680067</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09859154929577464</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01408450704225352</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="F9">
-        <v>0.05164319248826291</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1173708920187793</v>
+        <v>0.1173913043478261</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02816901408450704</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1737089201877934</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R9">
-        <v>0.08450704225352113</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="S9">
-        <v>0.431924882629108</v>
+        <v>0.4304347826086957</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09738717339667459</v>
+        <v>0.1007142857142857</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02058590657165479</v>
+        <v>0.01928571428571428</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05700712589073634</v>
+        <v>0.055</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1258907363420428</v>
+        <v>0.1278571428571429</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01108471892319873</v>
+        <v>0.01071428571428571</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2193190815518606</v>
+        <v>0.22</v>
       </c>
       <c r="R10">
-        <v>0.09026128266033254</v>
+        <v>0.09</v>
       </c>
       <c r="S10">
-        <v>0.3784639746634996</v>
+        <v>0.3764285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1569230769230769</v>
+        <v>0.1517615176151761</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08923076923076922</v>
+        <v>0.08672086720867209</v>
       </c>
       <c r="K11">
-        <v>0.2307692307692308</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L11">
-        <v>0.4830769230769231</v>
+        <v>0.4986449864498645</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04</v>
+        <v>0.04336043360433604</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.703030303030303</v>
+        <v>0.6875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1575757575757576</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="K12">
-        <v>0.02424242424242424</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L12">
-        <v>0.06060606060606061</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05454545454545454</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6829268292682927</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2439024390243902</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07317073170731707</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01538461538461539</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1641025641025641</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="I15">
-        <v>0.03076923076923077</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="J15">
-        <v>0.4</v>
+        <v>0.3990825688073394</v>
       </c>
       <c r="K15">
-        <v>0.06153846153846154</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01025641025641026</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05641025641025641</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2615384615384616</v>
+        <v>0.2614678899082569</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01694915254237288</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2259887005649718</v>
+        <v>0.2315270935960591</v>
       </c>
       <c r="I16">
-        <v>0.096045197740113</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="J16">
-        <v>0.4180790960451977</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K16">
-        <v>0.096045197740113</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005649717514124294</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02259887005649718</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1186440677966102</v>
+        <v>0.1231527093596059</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01939655172413793</v>
+        <v>0.01919385796545105</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2004310344827586</v>
+        <v>0.2034548944337812</v>
       </c>
       <c r="I17">
-        <v>0.08836206896551724</v>
+        <v>0.08829174664107485</v>
       </c>
       <c r="J17">
-        <v>0.3685344827586207</v>
+        <v>0.3608445297504799</v>
       </c>
       <c r="K17">
-        <v>0.09913793103448276</v>
+        <v>0.1036468330134357</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01939655172413793</v>
+        <v>0.01727447216890595</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0625</v>
+        <v>0.06525911708253358</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1422413793103448</v>
+        <v>0.1420345489443378</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009009009009009009</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2027027027027027</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="I18">
-        <v>0.0990990990990991</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="J18">
-        <v>0.3828828828828829</v>
+        <v>0.3909465020576132</v>
       </c>
       <c r="K18">
-        <v>0.1036036036036036</v>
+        <v>0.102880658436214</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.004504504504504504</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="N18">
-        <v>0.004504504504504504</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="O18">
-        <v>0.04954954954954955</v>
+        <v>0.04526748971193416</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1441441441441441</v>
+        <v>0.139917695473251</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01388888888888889</v>
+        <v>0.01322751322751323</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2390350877192982</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="I19">
-        <v>0.0935672514619883</v>
+        <v>0.09193121693121693</v>
       </c>
       <c r="J19">
-        <v>0.3340643274853801</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K19">
-        <v>0.1052631578947368</v>
+        <v>0.1097883597883598</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02192982456140351</v>
+        <v>0.0205026455026455</v>
       </c>
       <c r="N19">
-        <v>0.002192982456140351</v>
+        <v>0.002645502645502645</v>
       </c>
       <c r="O19">
-        <v>0.05628654970760234</v>
+        <v>0.05753968253968254</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1337719298245614</v>
+        <v>0.1329365079365079</v>
       </c>
     </row>
   </sheetData>
